--- a/words.xlsx
+++ b/words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidar.zhumekenov/Personal/KBTU master/II semestr/NLP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A68DD0D-84AC-F44E-88E2-E446D0F731F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2954616-FB74-E442-87C3-D3705FB217FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{90AEA7AB-C202-E74F-8E17-371EE4D315F0}"/>
+    <workbookView xWindow="1260" yWindow="460" windowWidth="32340" windowHeight="20540" xr2:uid="{90AEA7AB-C202-E74F-8E17-371EE4D315F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>БУРОВАЯ</t>
   </si>
@@ -75,12 +75,6 @@
   </si>
   <si>
     <t>ВАФЕЛЬНИЦА</t>
-  </si>
-  <si>
-    <t>ВЕЙП</t>
-  </si>
-  <si>
-    <t>ВЕЙПЕР</t>
   </si>
   <si>
     <t>ВЕЛЬВЕТ</t>
@@ -473,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB88E288-4186-5346-B837-FADED13673AC}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -603,7 +597,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -611,7 +605,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -619,7 +613,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -627,7 +621,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
@@ -635,7 +629,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
@@ -643,7 +637,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
@@ -651,7 +645,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
@@ -659,26 +653,10 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
